--- a/hojas_de_costo_excel/desglose de calculos-hojas de costo.xlsx
+++ b/hojas_de_costo_excel/desglose de calculos-hojas de costo.xlsx
@@ -993,6 +993,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1001,9 +1065,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1016,48 +1077,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1076,25 +1095,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1377,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,20 +1390,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -1418,23 +1418,23 @@
       <c r="H3" s="34"/>
       <c r="I3" s="35"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="4"/>
       <c r="K4" s="15" t="s">
         <v>7</v>
@@ -1445,16 +1445,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="51"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1556,20 +1556,20 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
@@ -1586,10 +1586,10 @@
       <c r="J12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="27"/>
+      <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -1613,15 +1613,15 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="5"/>
       <c r="J14" s="4" t="s">
         <v>12</v>
@@ -1633,15 +1633,15 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="8"/>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1666,10 +1666,10 @@
       <c r="J17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="26" t="s">
+      <c r="K17" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="27"/>
+      <c r="L17" s="39"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -1693,15 +1693,15 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="5"/>
       <c r="J19" s="4" t="s">
         <v>12</v>
@@ -1750,33 +1750,33 @@
       <c r="L21" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
@@ -1798,20 +1798,20 @@
       <c r="L25" s="9"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
@@ -1825,31 +1825,31 @@
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="35"/>
-      <c r="J28" s="28" t="s">
+      <c r="J28" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="26"/>
-      <c r="L28" s="27"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="39"/>
     </row>
     <row r="29" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="29" t="s">
+      <c r="K29" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="30"/>
+      <c r="L29" s="26"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -1886,10 +1886,10 @@
       <c r="J31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="37">
         <v>0.17</v>
       </c>
-      <c r="L31" s="19"/>
+      <c r="L31" s="41"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
@@ -1919,11 +1919,11 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="48" t="s">
+      <c r="J34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="30"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="26"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -1947,16 +1947,16 @@
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
       <c r="J36" s="4" t="s">
         <v>34</v>
       </c>
@@ -2005,28 +2005,28 @@
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44" t="s">
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44" t="s">
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="31">
         <v>0.17</v>
       </c>
@@ -2044,13 +2044,13 @@
       <c r="L41" s="32"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
       <c r="F42" s="10"/>
       <c r="G42" s="8"/>
       <c r="H42" s="10"/>
@@ -2074,46 +2074,46 @@
       <c r="L43" s="12"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
     </row>
     <row r="45" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="43"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="50"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -2218,14 +2218,14 @@
       <c r="L52" s="6"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -2298,14 +2298,14 @@
       <c r="L57" s="6"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -2378,16 +2378,16 @@
       <c r="L62" s="9"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -2411,15 +2411,15 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
@@ -2443,15 +2443,15 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
@@ -2459,15 +2459,15 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -2475,13 +2475,13 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
@@ -2491,11 +2491,28 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="J28:L28"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="J34:L34"/>
@@ -2512,29 +2529,13 @@
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="A23:L23"/>
     <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="A64:H64"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="62" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>